--- a/SENAI-Sprint.1-BD/1.5/Modelo-Fisico.xlsx
+++ b/SENAI-Sprint.1-BD/1.5/Modelo-Fisico.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flávia\Documents\Técnico\Segundo semestre\SENAI-Segundo.Semestre\SENAI-Sprint.1-BD\1.5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flávia\Documents\Python Scripts\Técnico\Segundo semestre\SENAI-Segundo.Semestre\SENAI-Sprint.1-BD\1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C1635C-F272-4B2E-B8F6-EB4F40D28CC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4F6952-D551-4ABB-98AD-E19CF548A137}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00267F44-AF11-48F9-B871-E9C2996A54E6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>Nome</t>
   </si>
@@ -39,18 +39,6 @@
     <t>Endereço</t>
   </si>
   <si>
-    <t>Clinica</t>
-  </si>
-  <si>
-    <t>idClinica</t>
-  </si>
-  <si>
-    <t>idEndereço</t>
-  </si>
-  <si>
-    <t>idVeteninario</t>
-  </si>
-  <si>
     <t>Vanessa</t>
   </si>
   <si>
@@ -60,18 +48,6 @@
     <t>Bruno</t>
   </si>
   <si>
-    <t>Protocolo</t>
-  </si>
-  <si>
-    <t>00001</t>
-  </si>
-  <si>
-    <t>00002</t>
-  </si>
-  <si>
-    <t>00003</t>
-  </si>
-  <si>
     <t>Fogão</t>
   </si>
   <si>
@@ -139,6 +115,15 @@
   </si>
   <si>
     <t>Magazine Luiza</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Pedido</t>
+  </si>
+  <si>
+    <t>idPedido</t>
   </si>
 </sst>
 </file>
@@ -280,30 +265,28 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63232AB8-2FFE-4726-99E5-0AAB6168FB82}">
   <dimension ref="B2:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,21 +635,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="E2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="J2" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="B2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="E2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="J2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -676,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
@@ -702,13 +685,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>12</v>
+      <c r="F4" s="15">
+        <v>43470</v>
       </c>
       <c r="G4" s="6">
         <v>1</v>
@@ -720,7 +703,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="L4" s="8">
         <v>3</v>
@@ -731,13 +714,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E5" s="6">
         <v>2</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>13</v>
+      <c r="F5" s="15">
+        <v>43961</v>
       </c>
       <c r="G5" s="6">
         <v>2</v>
@@ -749,7 +732,7 @@
         <v>2</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="L5" s="8">
         <v>3</v>
@@ -760,13 +743,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E6" s="6">
         <v>3</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>14</v>
+      <c r="F6" s="15">
+        <v>44073</v>
       </c>
       <c r="G6" s="6">
         <v>3</v>
@@ -778,85 +761,103 @@
         <v>3</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="L6" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E7" s="6">
+        <v>4</v>
+      </c>
+      <c r="F7" s="15">
+        <v>44219</v>
+      </c>
+      <c r="G7" s="6">
+        <v>2</v>
+      </c>
+      <c r="H7" s="6">
+        <v>4</v>
+      </c>
       <c r="J7" s="8">
         <v>4</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L7" s="8">
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F9" s="16"/>
+    </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="F12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="J12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
+      <c r="B12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="F12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="J12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
+      <c r="L13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D14" s="1">
         <v>3</v>
@@ -865,32 +866,32 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="1">
-        <v>2</v>
-      </c>
-      <c r="J14" s="4">
-        <v>1</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
@@ -899,32 +900,32 @@
         <v>2</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="4">
+        <v>2</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-      <c r="J15" s="4">
-        <v>2</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L15" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -933,7 +934,7 @@
         <v>3</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H16" s="1">
         <v>2</v>
